--- a/sharp.xlsx
+++ b/sharp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry.yang/XcodeProj/Tetris/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF435B81-4DC9-B047-8148-0781D79D252A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BD654D-1DD2-904B-AA00-90D359452392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="2000" windowWidth="28040" windowHeight="18220" xr2:uid="{FDF47FA7-F8A1-F744-BB72-404BADD39390}"/>
+    <workbookView xWindow="3840" yWindow="1840" windowWidth="28040" windowHeight="18220" xr2:uid="{FDF47FA7-F8A1-F744-BB72-404BADD39390}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -937,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6406EE83-2203-D444-B228-63771A6CAFB1}">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
